--- a/database/distr/v1.0/templates/data/fond/primary_1151111/v2016/report_summary.xlsx
+++ b/database/distr/v1.0/templates/data/fond/primary_1151111/v2016/report_summary.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMakarov\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="9660" tabRatio="815"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24495" windowHeight="9660" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="Общее" sheetId="2" r:id="rId1"/>
@@ -22,48 +27,12 @@
     <sheet name="П10.Сведния пп.1 п.3 ст.422" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Аванесов Григорий</author>
-  </authors>
-  <commentList>
-    <comment ref="F18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Аванесов Григорий:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-ПревРасхОСС</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,8 +872,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,21 +915,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1307,9 +1261,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,7 +1283,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1339,7 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,7 +1307,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1383,10 +1337,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1399,7 +1353,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,16 +1371,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1453,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1464,9 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,21 +1694,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.140625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
@@ -1762,23 +1716,23 @@
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1">
+      <c r="B1" s="64"/>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="15.75">
+    <row r="3" spans="1:11" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>27</v>
       </c>
@@ -1786,7 +1740,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1748,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>29</v>
       </c>
@@ -1802,16 +1756,16 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="55"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
         <v>30</v>
       </c>
@@ -1819,7 +1773,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>32</v>
       </c>
@@ -1828,7 +1782,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>33</v>
       </c>
@@ -1837,7 +1791,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1800,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>15</v>
       </c>
@@ -1855,7 +1809,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>34</v>
       </c>
@@ -1864,7 +1818,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>35</v>
       </c>
@@ -1873,15 +1827,15 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K16" s="6"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>179</v>
       </c>
@@ -1889,7 +1843,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>180</v>
       </c>
@@ -1897,13 +1851,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="66"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="67"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>181</v>
       </c>
@@ -1911,7 +1865,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +1873,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="59" t="s">
         <v>182</v>
       </c>
@@ -1927,13 +1881,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="64"/>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="65"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>183</v>
       </c>
@@ -1941,7 +1895,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
         <v>48</v>
       </c>
@@ -1949,7 +1903,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>182</v>
       </c>
@@ -1957,12 +1911,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>187</v>
       </c>
@@ -1970,7 +1924,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>188</v>
       </c>
@@ -1978,13 +1932,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="64" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="64"/>
-    </row>
-    <row r="34" spans="1:2" ht="30">
+      <c r="B33" s="65"/>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
         <v>209</v>
       </c>
@@ -1992,7 +1946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
         <v>210</v>
       </c>
@@ -2012,12 +1966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -2028,20 +1982,20 @@
     <col min="9" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
@@ -2049,13 +2003,13 @@
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
@@ -2063,13 +2017,13 @@
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -2077,13 +2031,13 @@
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
@@ -2091,7 +2045,7 @@
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -2105,36 +2059,36 @@
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="105" customHeight="1">
-      <c r="A10" s="68" t="s">
+    <row r="10" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="68" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="68"/>
-    </row>
-    <row r="11" spans="1:12" ht="75">
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>107</v>
       </c>
@@ -2181,12 +2135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
@@ -2194,121 +2148,121 @@
     <col min="6" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="68" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:12" ht="75">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="72"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="38" t="s">
         <v>58</v>
       </c>
@@ -2340,128 +2294,128 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="10" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-    </row>
-    <row r="6" spans="1:12" ht="6" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+    </row>
+    <row r="6" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="72" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:12" ht="60">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="81"/>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="38" t="s">
         <v>58</v>
       </c>
@@ -2493,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2501,7 +2455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -2512,100 +2466,100 @@
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-    </row>
-    <row r="4" spans="1:15" ht="108.75" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+    </row>
+    <row r="4" spans="1:15" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" customHeight="1" outlineLevel="1">
-      <c r="A8" s="82" t="s">
+    <row r="8" spans="1:15" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="78" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:15" ht="83.25" customHeight="1" outlineLevel="1">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:15" ht="83.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="36" t="s">
         <v>85</v>
       </c>
@@ -2631,18 +2585,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" outlineLevel="1"/>
-    <row r="11" spans="1:15">
+    <row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:15" outlineLevel="1">
+    <row r="12" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="121.5" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:15" ht="121.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>26</v>
       </c>
@@ -2656,8 +2610,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:15" outlineLevel="1"/>
-    <row r="15" spans="1:15" outlineLevel="1"/>
+    <row r="14" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H8:L8"/>
@@ -2673,12 +2627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -2692,23 +2646,23 @@
     <col min="16" max="18" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="N2" s="67" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="68"/>
+      <c r="P2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -2775,15 +2729,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
@@ -2797,28 +2753,28 @@
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="120.75" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:10" ht="120.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2840,13 +2796,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" outlineLevel="1"/>
-    <row r="8" spans="1:10" outlineLevel="1">
+    <row r="7" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105">
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2864,12 +2820,12 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105" outlineLevel="1">
+    <row r="12" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -2887,13 +2843,13 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:10" outlineLevel="1"/>
-    <row r="14" spans="1:10">
+    <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="105" outlineLevel="1">
+    <row r="15" spans="1:10" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -2911,31 +2867,31 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:10" outlineLevel="1"/>
-    <row r="17" spans="1:11">
+    <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="50.25" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:11" ht="50.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" ht="150.75" outlineLevel="1" thickBot="1">
+    <row r="19" spans="1:11" ht="150.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="70"/>
       <c r="B19" s="14" t="s">
         <v>1</v>
@@ -2971,12 +2927,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2986,7 +2941,7 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
@@ -2996,124 +2951,124 @@
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" outlineLevel="1">
+    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" outlineLevel="2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72" t="s">
+    <row r="13" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-    </row>
-    <row r="14" spans="1:12" ht="45" customHeight="1" outlineLevel="2">
-      <c r="A14" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
       <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
@@ -3130,7 +3085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" customHeight="1" outlineLevel="2">
+    <row r="15" spans="1:12" ht="24" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>62</v>
       </c>
@@ -3141,7 +3096,7 @@
       <c r="F15" s="8"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="45" outlineLevel="2">
+    <row r="16" spans="1:12" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>63</v>
       </c>
@@ -3151,7 +3106,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="90" outlineLevel="2">
+    <row r="17" spans="1:6" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
@@ -3161,22 +3116,22 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" outlineLevel="2"/>
-    <row r="19" spans="1:6" outlineLevel="1">
+    <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" outlineLevel="2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-    </row>
-    <row r="21" spans="1:6" ht="60" outlineLevel="2">
-      <c r="A21" s="72"/>
+    <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -3193,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" outlineLevel="2">
+    <row r="22" spans="1:6" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
@@ -3203,7 +3158,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="30" outlineLevel="2">
+    <row r="23" spans="1:6" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>67</v>
       </c>
@@ -3213,7 +3168,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" outlineLevel="2">
+    <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>68</v>
       </c>
@@ -3223,7 +3178,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="75" outlineLevel="2">
+    <row r="25" spans="1:6" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>69</v>
       </c>
@@ -3233,7 +3188,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" outlineLevel="2">
+    <row r="26" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
@@ -3243,7 +3198,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="60" outlineLevel="2">
+    <row r="27" spans="1:6" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -3253,7 +3208,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="60" outlineLevel="2">
+    <row r="28" spans="1:6" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>72</v>
       </c>
@@ -3263,34 +3218,34 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" outlineLevel="2">
+    <row r="29" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" outlineLevel="1">
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:8" outlineLevel="2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72" t="s">
+    <row r="33" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1" outlineLevel="2">
-      <c r="A34" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
       <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
@@ -3307,7 +3262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24" customHeight="1" outlineLevel="2">
+    <row r="35" spans="1:8" ht="24" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -3318,7 +3273,7 @@
       <c r="F35" s="8"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" ht="45" outlineLevel="2">
+    <row r="36" spans="1:8" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
@@ -3328,22 +3283,22 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:8" outlineLevel="2"/>
-    <row r="38" spans="1:8" outlineLevel="1">
+    <row r="37" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" outlineLevel="2">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-    </row>
-    <row r="40" spans="1:8" ht="60" outlineLevel="2">
-      <c r="A40" s="72"/>
+    <row r="39" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+    </row>
+    <row r="40" spans="1:8" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="73"/>
       <c r="B40" s="7" t="s">
         <v>58</v>
       </c>
@@ -3360,7 +3315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" outlineLevel="2">
+    <row r="41" spans="1:8" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
@@ -3370,7 +3325,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="30" outlineLevel="2">
+    <row r="42" spans="1:8" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
@@ -3380,7 +3335,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:8" outlineLevel="2">
+    <row r="43" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>68</v>
       </c>
@@ -3390,7 +3345,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:8" outlineLevel="2">
+    <row r="44" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>70</v>
       </c>
@@ -3400,18 +3355,18 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:8" outlineLevel="2">
+    <row r="45" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
     </row>
-    <row r="50" spans="1:8" ht="45">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
         <v>77</v>
       </c>
@@ -3422,7 +3377,7 @@
       <c r="F50" s="25"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3431,7 +3386,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>61</v>
       </c>
@@ -3442,19 +3397,19 @@
       <c r="F52" s="9"/>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1">
-      <c r="A53" s="74"/>
-      <c r="B53" s="72" t="s">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="75"/>
+      <c r="B53" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
       <c r="G53" s="28"/>
     </row>
-    <row r="54" spans="1:8" ht="45" customHeight="1" outlineLevel="1">
-      <c r="A54" s="74"/>
+    <row r="54" spans="1:8" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="75"/>
       <c r="B54" s="7" t="s">
         <v>58</v>
       </c>
@@ -3472,7 +3427,7 @@
       </c>
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="1:8" ht="60" outlineLevel="1">
+    <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>76</v>
       </c>
@@ -3484,7 +3439,7 @@
       <c r="G55" s="28"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" outlineLevel="1">
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -3493,7 +3448,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>65</v>
       </c>
@@ -3504,19 +3459,19 @@
       <c r="F57" s="9"/>
       <c r="G57" s="28"/>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="73" t="s">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="75"/>
+      <c r="B58" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:8" ht="60" outlineLevel="1">
-      <c r="A59" s="74"/>
+    <row r="59" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="75"/>
       <c r="B59" s="7" t="s">
         <v>58</v>
       </c>
@@ -3534,7 +3489,7 @@
       </c>
       <c r="G59" s="28"/>
     </row>
-    <row r="60" spans="1:8" ht="30" outlineLevel="1">
+    <row r="60" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>78</v>
       </c>
@@ -3545,7 +3500,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" spans="1:8" ht="30" outlineLevel="1">
+    <row r="61" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>67</v>
       </c>
@@ -3556,7 +3511,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" spans="1:8" ht="30" outlineLevel="1">
+    <row r="62" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>79</v>
       </c>
@@ -3567,7 +3522,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="28"/>
     </row>
-    <row r="63" spans="1:8" ht="30" outlineLevel="1">
+    <row r="63" spans="1:8" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>80</v>
       </c>
@@ -3578,7 +3533,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="28"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" outlineLevel="1" thickBot="1">
+    <row r="64" spans="1:8" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -3608,117 +3563,117 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="75"/>
-      <c r="B13" s="72" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-    </row>
-    <row r="14" spans="1:12" ht="105">
-      <c r="A14" s="76"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+    </row>
+    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
       <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
@@ -3735,7 +3690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>62</v>
       </c>
@@ -3745,23 +3700,23 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="75"/>
-      <c r="B18" s="73" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-    </row>
-    <row r="19" spans="1:6" ht="135" customHeight="1">
-      <c r="A19" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+    </row>
+    <row r="19" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -3778,7 +3733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -3788,7 +3743,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="30">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
@@ -3798,7 +3753,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>166</v>
       </c>
@@ -3808,7 +3763,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -3818,7 +3773,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="210">
+    <row r="24" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>167</v>
       </c>
@@ -3828,7 +3783,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="90">
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>168</v>
       </c>
@@ -3838,7 +3793,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="135">
+    <row r="26" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>169</v>
       </c>
@@ -3848,7 +3803,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="105">
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>170</v>
       </c>
@@ -3858,7 +3813,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>70</v>
       </c>
@@ -3868,7 +3823,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -3878,7 +3833,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>172</v>
       </c>
@@ -3888,12 +3843,12 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="5" t="s">
         <v>174</v>
@@ -3902,35 +3857,35 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>23</v>
       </c>
@@ -3950,95 +3905,95 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="77.28515625" customWidth="1"/>
     <col min="2" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="8" spans="1:12" ht="105">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="36" t="s">
         <v>143</v>
@@ -4053,7 +4008,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>147</v>
       </c>
@@ -4062,7 +4017,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="75">
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>148</v>
       </c>
@@ -4071,7 +4026,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="60">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>149</v>
       </c>
@@ -4080,7 +4035,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" ht="60">
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>150</v>
       </c>
@@ -4089,7 +4044,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>151</v>
       </c>
@@ -4098,7 +4053,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>152</v>
       </c>
@@ -4107,7 +4062,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>153</v>
       </c>
@@ -4116,7 +4071,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>157</v>
       </c>
@@ -4125,7 +4080,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>158</v>
       </c>
@@ -4134,7 +4089,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>135</v>
       </c>
@@ -4143,7 +4098,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>136</v>
       </c>
@@ -4152,7 +4107,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>156</v>
       </c>
@@ -4161,7 +4116,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>155</v>
       </c>
@@ -4170,7 +4125,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>159</v>
       </c>
@@ -4179,7 +4134,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>160</v>
       </c>
@@ -4188,14 +4143,14 @@
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>161</v>
       </c>
@@ -4213,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4221,7 +4176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.5703125" customWidth="1"/>
     <col min="2" max="4" width="21.140625" customWidth="1"/>
@@ -4230,95 +4185,95 @@
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="9" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="9" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" outlineLevel="1">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="36" t="s">
         <v>129</v>
@@ -4330,7 +4285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:12" outlineLevel="1">
+    <row r="11" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>132</v>
       </c>
@@ -4338,7 +4293,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:12" outlineLevel="1">
+    <row r="12" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>133</v>
       </c>
@@ -4346,7 +4301,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:12" outlineLevel="1">
+    <row r="13" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>134</v>
       </c>
@@ -4354,7 +4309,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>135</v>
       </c>
@@ -4362,7 +4317,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="30" outlineLevel="1">
+    <row r="15" spans="1:12" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>136</v>
       </c>
@@ -4370,7 +4325,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:12" outlineLevel="1">
+    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>24</v>
       </c>
@@ -4378,19 +4333,19 @@
       <c r="C16" s="50"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:7" outlineLevel="1"/>
-    <row r="19" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A19" s="77" t="s">
+    <row r="17" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" outlineLevel="1">
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="36" t="s">
         <v>129</v>
@@ -4402,7 +4357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" outlineLevel="1">
+    <row r="21" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>132</v>
       </c>
@@ -4410,7 +4365,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:7" outlineLevel="1">
+    <row r="22" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>133</v>
       </c>
@@ -4418,7 +4373,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:7" outlineLevel="1">
+    <row r="23" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>134</v>
       </c>
@@ -4426,7 +4381,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:7" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>135</v>
       </c>
@@ -4434,7 +4389,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="30" outlineLevel="1">
+    <row r="25" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>136</v>
       </c>
@@ -4442,7 +4397,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:7" outlineLevel="1">
+    <row r="26" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>24</v>
       </c>
@@ -4450,19 +4405,19 @@
       <c r="C26" s="50"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="27" spans="1:7" outlineLevel="1"/>
-    <row r="29" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A29" s="77" t="s">
+    <row r="27" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" outlineLevel="1">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="62"/>
       <c r="B30" s="41" t="s">
         <v>129</v>
@@ -4474,7 +4429,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:7" outlineLevel="1">
+    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>132</v>
       </c>
@@ -4482,7 +4437,7 @@
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
     </row>
-    <row r="32" spans="1:7" outlineLevel="1">
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>24</v>
       </c>
@@ -4490,19 +4445,19 @@
       <c r="C32" s="51"/>
       <c r="D32" s="43"/>
     </row>
-    <row r="33" spans="1:7" outlineLevel="1"/>
-    <row r="35" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A35" s="77" t="s">
+    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" outlineLevel="1">
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="36" t="s">
         <v>129</v>
@@ -4514,7 +4469,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" outlineLevel="1">
+    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>132</v>
       </c>
@@ -4522,7 +4477,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:7" outlineLevel="1">
+    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>133</v>
       </c>
@@ -4530,7 +4485,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7" outlineLevel="1">
+    <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>134</v>
       </c>
@@ -4538,7 +4493,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:7" ht="20.25" customHeight="1" outlineLevel="1">
+    <row r="40" spans="1:7" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>135</v>
       </c>
@@ -4546,7 +4501,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:7" ht="30" outlineLevel="1">
+    <row r="41" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>136</v>
       </c>
@@ -4554,7 +4509,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:7" outlineLevel="1">
+    <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>24</v>
       </c>
@@ -4562,19 +4517,19 @@
       <c r="C42" s="50"/>
       <c r="D42" s="23"/>
     </row>
-    <row r="43" spans="1:7" outlineLevel="1"/>
-    <row r="45" spans="1:7" ht="81.75" customHeight="1">
-      <c r="A45" s="77" t="s">
+    <row r="43" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" outlineLevel="1">
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36" t="s">
@@ -4584,7 +4539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:7" outlineLevel="1">
+    <row r="47" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>132</v>
       </c>
@@ -4592,7 +4547,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:7" outlineLevel="1">
+    <row r="48" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>133</v>
       </c>
@@ -4600,7 +4555,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:7" outlineLevel="1">
+    <row r="49" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>24</v>
       </c>
@@ -4608,19 +4563,19 @@
       <c r="C49" s="50"/>
       <c r="D49" s="23"/>
     </row>
-    <row r="50" spans="1:7" outlineLevel="1"/>
-    <row r="51" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A51" s="77" t="s">
+    <row r="50" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-    </row>
-    <row r="52" spans="1:7" ht="45">
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>155</v>
       </c>
@@ -4631,7 +4586,7 @@
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -4640,7 +4595,7 @@
       <c r="F53" s="46"/>
       <c r="G53" s="46"/>
     </row>
-    <row r="54" spans="1:7" ht="30" outlineLevel="1">
+    <row r="54" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="36" t="s">
         <v>129</v>
@@ -4652,7 +4607,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:7" outlineLevel="1">
+    <row r="55" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>132</v>
       </c>
@@ -4660,7 +4615,7 @@
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:7" outlineLevel="1">
+    <row r="56" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>133</v>
       </c>
@@ -4668,7 +4623,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:7" outlineLevel="1">
+    <row r="57" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>134</v>
       </c>
@@ -4676,7 +4631,7 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="20.25" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:7" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>135</v>
       </c>
@@ -4684,7 +4639,7 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:7" ht="30" outlineLevel="1">
+    <row r="59" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>136</v>
       </c>
@@ -4692,7 +4647,7 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:7" ht="30" outlineLevel="1">
+    <row r="60" spans="1:7" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>156</v>
       </c>
@@ -4700,7 +4655,7 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="1:7" outlineLevel="1">
+    <row r="61" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>24</v>
       </c>
@@ -4708,7 +4663,7 @@
       <c r="C61" s="50"/>
       <c r="D61" s="23"/>
     </row>
-    <row r="62" spans="1:7" outlineLevel="1"/>
+    <row r="62" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A51:G51"/>
@@ -4724,118 +4679,118 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="10" spans="1:12" ht="62.25" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="10" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="68"/>
-    </row>
-    <row r="11" spans="1:12" ht="90">
+      <c r="J10" s="71"/>
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>120</v>
       </c>
@@ -4882,12 +4837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -4897,84 +4852,84 @@
     <col min="8" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-    </row>
-    <row r="9" spans="1:12" ht="120">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>116</v>
       </c>
